--- a/Restaurant_Meals_Prediction/data/день - количество блюд.xlsx
+++ b/Restaurant_Meals_Prediction/data/день - количество блюд.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marat\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stanislavsmirnov/Documents/Github_local/Data_Science_Projects/Restaurant_Meals_Prediction/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B450EB04-4FD5-4C1F-9C8D-A6C4F04E3859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698AE4F6-D83E-A848-B36C-75422308516B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OLAP Отчет по продажам" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -424,41 +424,41 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C902"/>
+  <dimension ref="A1:C901"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A889" workbookViewId="0">
+      <selection activeCell="C899" sqref="C899"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="68.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="68.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -466,7 +466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43196</v>
       </c>
@@ -474,7 +474,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43197</v>
       </c>
@@ -482,7 +482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43198</v>
       </c>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43199</v>
       </c>
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43200</v>
       </c>
@@ -506,7 +506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43201</v>
       </c>
@@ -514,7 +514,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43202</v>
       </c>
@@ -522,7 +522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43203</v>
       </c>
@@ -530,7 +530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43204</v>
       </c>
@@ -538,7 +538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43205</v>
       </c>
@@ -546,7 +546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43206</v>
       </c>
@@ -554,7 +554,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43207</v>
       </c>
@@ -562,7 +562,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>43208</v>
       </c>
@@ -570,7 +570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>43209</v>
       </c>
@@ -578,7 +578,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>43210</v>
       </c>
@@ -586,7 +586,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43211</v>
       </c>
@@ -594,7 +594,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43212</v>
       </c>
@@ -602,7 +602,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>43213</v>
       </c>
@@ -610,7 +610,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>43214</v>
       </c>
@@ -618,7 +618,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43215</v>
       </c>
@@ -626,7 +626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>43216</v>
       </c>
@@ -634,7 +634,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>43217</v>
       </c>
@@ -642,7 +642,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43218</v>
       </c>
@@ -650,7 +650,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>43219</v>
       </c>
@@ -658,7 +658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>43220</v>
       </c>
@@ -666,7 +666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>43221</v>
       </c>
@@ -674,7 +674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>43222</v>
       </c>
@@ -682,7 +682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>43223</v>
       </c>
@@ -690,7 +690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43224</v>
       </c>
@@ -698,7 +698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>43225</v>
       </c>
@@ -706,7 +706,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>43226</v>
       </c>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>43227</v>
       </c>
@@ -722,7 +722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>43228</v>
       </c>
@@ -730,7 +730,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>43229</v>
       </c>
@@ -738,7 +738,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>43230</v>
       </c>
@@ -746,7 +746,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>43231</v>
       </c>
@@ -754,7 +754,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>43232</v>
       </c>
@@ -762,7 +762,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>43233</v>
       </c>
@@ -770,7 +770,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>43234</v>
       </c>
@@ -778,7 +778,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43235</v>
       </c>
@@ -786,7 +786,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43236</v>
       </c>
@@ -794,7 +794,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>43237</v>
       </c>
@@ -802,7 +802,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>43238</v>
       </c>
@@ -810,7 +810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>43239</v>
       </c>
@@ -818,7 +818,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>43240</v>
       </c>
@@ -826,7 +826,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>43241</v>
       </c>
@@ -834,7 +834,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>43242</v>
       </c>
@@ -842,7 +842,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>43243</v>
       </c>
@@ -850,7 +850,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>43244</v>
       </c>
@@ -858,7 +858,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>43245</v>
       </c>
@@ -866,7 +866,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>43246</v>
       </c>
@@ -874,7 +874,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>43247</v>
       </c>
@@ -882,7 +882,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>43248</v>
       </c>
@@ -890,7 +890,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>43249</v>
       </c>
@@ -898,7 +898,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>43250</v>
       </c>
@@ -906,7 +906,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>43251</v>
       </c>
@@ -914,7 +914,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>43252</v>
       </c>
@@ -922,7 +922,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>43253</v>
       </c>
@@ -930,7 +930,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>43254</v>
       </c>
@@ -938,7 +938,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>43255</v>
       </c>
@@ -946,7 +946,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>43256</v>
       </c>
@@ -954,7 +954,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>43257</v>
       </c>
@@ -962,7 +962,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>43258</v>
       </c>
@@ -970,7 +970,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>43259</v>
       </c>
@@ -978,7 +978,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>43260</v>
       </c>
@@ -986,7 +986,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>43261</v>
       </c>
@@ -994,7 +994,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>43262</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>43263</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>43264</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>43265</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>43266</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>43267</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>43268</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>43269</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>43270</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>43271</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>43272</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>43273</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>43274</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>43275</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>43276</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>43277</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>43278</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>43279</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>43280</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>43281</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>43282</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>43283</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>43284</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>43285</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>43286</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>43287</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>43288</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>43289</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>43290</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>43291</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>43292</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>43293</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>43294</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>43295</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>43296</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>43297</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>43298</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>43299</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>43300</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>43301</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>43302</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>43303</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>43304</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>43305</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>43306</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>43307</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>43308</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>43309</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>43310</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>43311</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>43312</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>43313</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>43314</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>43315</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>43316</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>43317</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>43318</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>43319</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>43320</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>43321</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>43322</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>43323</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>43324</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>43325</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>43326</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>43327</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>43328</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>43329</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>43330</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>43331</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>43332</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>43333</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>43334</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>43335</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>43336</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>43337</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>43338</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>43339</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>43340</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>43341</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>43342</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>43343</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>43344</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>43345</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>43346</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>43347</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>43348</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>43349</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>43350</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>43351</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>43352</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>43353</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>43354</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>43355</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>43356</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>43357</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>43358</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>43359</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>43360</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>43361</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>43362</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>43363</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>43364</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>43365</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>43366</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>43367</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>43368</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>43369</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>43370</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>43371</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>43372</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>43373</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>43374</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>43375</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>43376</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>43377</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>43378</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>43379</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>43380</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>43381</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>43382</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>43383</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>43384</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>43385</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>43386</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>43387</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>43388</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>43389</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>43390</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>43391</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>43392</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>43393</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>43394</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>43395</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>43396</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>43397</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>43398</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>43399</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>43400</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>43401</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>43402</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>43403</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>43404</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>43405</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>43406</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>43407</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>43408</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>43409</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>43410</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>43411</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>43412</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>43413</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>43414</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>43415</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>43416</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>43417</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>43418</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>43419</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>43420</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>43421</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>43422</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>43423</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>43424</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>43425</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>171.184</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>43426</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>43427</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>43428</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>43429</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>43430</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>43431</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>43432</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>43433</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>43434</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>43435</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>43436</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>43437</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>220.8</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>43438</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>43439</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>43440</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>43441</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>43442</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>43443</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>43444</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>43445</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>43446</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>43447</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>43448</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>43449</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>43450</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>43451</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>43452</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>43453</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>43454</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>43455</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>43456</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>43457</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>43458</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>43459</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>43460</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>43461</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>43462</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>43463</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>43464</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>43465</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>43468</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>43469</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>43470</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>43471</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>43472</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>43473</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>43474</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>43475</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>43476</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>43477</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>43478</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>43479</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>43480</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>43481</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>43482</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>43483</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>43484</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>43485</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>43486</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>43487</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>43488</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>43489</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>43490</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>43491</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>43492</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>43493</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>43494</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>43495</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>43496</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>43497</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>43498</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>43499</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>43500</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>43501</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>43502</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>43503</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>43504</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>43505</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>43506</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>43507</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>289.29599999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>43508</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <v>43509</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <v>43510</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>43511</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>43512</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>43513</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <v>43514</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <v>43515</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>43516</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>43517</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>43518</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>43519</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>43520</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
         <v>43521</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
         <v>43522</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
         <v>43523</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
         <v>43524</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
         <v>43525</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
         <v>43526</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
         <v>43527</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
         <v>43528</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <v>43529</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
         <v>43530</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <v>43531</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
         <v>43532</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
         <v>43533</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
         <v>43534</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <v>43535</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
         <v>43536</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
         <v>43537</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
         <v>43538</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
         <v>43539</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
         <v>43540</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
         <v>43541</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
         <v>43542</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
         <v>43543</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
         <v>43544</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
         <v>43545</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
         <v>43546</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
         <v>43547</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="355" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
         <v>43548</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="356" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <v>43549</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
         <v>43550</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="358" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
         <v>43551</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
         <v>43552</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
         <v>43553</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
         <v>43554</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="362" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
         <v>43555</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="363" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
         <v>43556</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="364" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
         <v>43557</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
         <v>43558</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
         <v>43559</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
         <v>43560</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
         <v>43561</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
         <v>43562</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
         <v>43563</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
         <v>43564</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
         <v>43565</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
         <v>43566</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
         <v>43567</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
         <v>43568</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
         <v>43569</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="377" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
         <v>43570</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
         <v>43571</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
         <v>43572</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="380" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
         <v>43573</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="381" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
         <v>43574</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="382" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
         <v>43575</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
         <v>43576</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
         <v>43577</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
         <v>43578</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
         <v>43579</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="387" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
         <v>43580</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
         <v>43581</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
         <v>43582</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
         <v>43583</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="391" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
         <v>43584</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="392" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
         <v>43585</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
         <v>43586</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="394" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
         <v>43587</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="395" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
         <v>43588</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
         <v>43589</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="397" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
         <v>43590</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="398" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
         <v>43591</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
         <v>43592</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="400" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
         <v>43593</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="401" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
         <v>43594</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="402" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
         <v>43595</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="403" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
         <v>43596</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
         <v>43597</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="405" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
         <v>43598</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="406" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
         <v>43599</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
         <v>43600</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="408" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
         <v>43601</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
         <v>43602</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
         <v>43603</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="411" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
         <v>43604</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
         <v>43605</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="413" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
         <v>43606</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="414" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
         <v>43607</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="415" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
         <v>43608</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="416" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
         <v>43609</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="417" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
         <v>43610</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="418" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
         <v>43611</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
         <v>43612</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="420" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
         <v>43613</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="421" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
         <v>43614</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="422" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
         <v>43615</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="2">
         <v>43616</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="424" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
         <v>43617</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="425" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
         <v>43618</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="426" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
         <v>43619</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="427" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
         <v>43620</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="428" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
         <v>43621</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="429" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
         <v>43622</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="430" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
         <v>43623</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="2">
         <v>43624</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="2">
         <v>43625</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="433" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="2">
         <v>43626</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="434" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
         <v>43627</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="435" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
         <v>43628</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="436" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
         <v>43629</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="437" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
         <v>43630</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="438" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
         <v>43631</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
         <v>43632</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
         <v>43633</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="441" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="2">
         <v>43634</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="442" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="2">
         <v>43635</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="443" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="2">
         <v>43636</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="444" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="2">
         <v>43637</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="445" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="2">
         <v>43638</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="446" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="2">
         <v>43639</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="447" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="2">
         <v>43640</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="2">
         <v>43641</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="449" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="2">
         <v>43642</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="450" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="2">
         <v>43643</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="451" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="2">
         <v>43644</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="452" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="2">
         <v>43645</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="453" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="2">
         <v>43646</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="454" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="2">
         <v>43647</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="455" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="2">
         <v>43648</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="456" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="2">
         <v>43649</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="457" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="2">
         <v>43650</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="458" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="2">
         <v>43651</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="459" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="2">
         <v>43652</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="460" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="2">
         <v>43653</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="461" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="2">
         <v>43654</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="462" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="2">
         <v>43655</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="463" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="2">
         <v>43656</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="464" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="2">
         <v>43657</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="465" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="2">
         <v>43658</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>276.5</v>
       </c>
     </row>
-    <row r="466" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="2">
         <v>43659</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="467" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="2">
         <v>43660</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="468" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="2">
         <v>43661</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="469" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="2">
         <v>43662</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="470" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="2">
         <v>43663</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="471" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="2">
         <v>43664</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="472" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="2">
         <v>43665</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="473" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="2">
         <v>43666</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="474" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="2">
         <v>43667</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="475" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="2">
         <v>43668</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="476" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="2">
         <v>43669</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="477" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="2">
         <v>43670</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="478" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="2">
         <v>43671</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="479" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="2">
         <v>43672</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="480" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="2">
         <v>43673</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="481" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="2">
         <v>43674</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="482" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="2">
         <v>43675</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="483" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="2">
         <v>43676</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="484" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="2">
         <v>43677</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="485" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="2">
         <v>43678</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="486" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="2">
         <v>43679</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="487" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="2">
         <v>43680</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="488" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="2">
         <v>43681</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="489" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="2">
         <v>43682</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="490" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="2">
         <v>43683</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="491" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="2">
         <v>43684</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="492" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="2">
         <v>43685</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="493" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="2">
         <v>43686</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="494" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="2">
         <v>43687</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="495" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="2">
         <v>43688</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="496" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="2">
         <v>43689</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="497" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="2">
         <v>43690</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="498" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="2">
         <v>43691</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="499" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="2">
         <v>43692</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="500" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="2">
         <v>43693</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="501" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="2">
         <v>43694</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="502" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="2">
         <v>43695</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="503" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="2">
         <v>43696</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="504" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="2">
         <v>43697</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="505" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="2">
         <v>43698</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="506" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="2">
         <v>43699</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="507" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="2">
         <v>43700</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="508" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="2">
         <v>43701</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="509" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="2">
         <v>43702</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="510" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="2">
         <v>43703</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="511" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="2">
         <v>43704</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="512" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="2">
         <v>43705</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="513" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="2">
         <v>43706</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="514" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="2">
         <v>43707</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="515" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="2">
         <v>43708</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="516" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="2">
         <v>43709</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="517" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="2">
         <v>43710</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="518" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="2">
         <v>43711</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>479.29</v>
       </c>
     </row>
-    <row r="519" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="2">
         <v>43712</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="520" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="2">
         <v>43713</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="521" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="2">
         <v>43714</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="522" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="2">
         <v>43715</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="523" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="2">
         <v>43716</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="524" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="2">
         <v>43717</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="525" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="2">
         <v>43718</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="526" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="2">
         <v>43719</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="527" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="2">
         <v>43720</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="528" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="2">
         <v>43721</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="529" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="2">
         <v>43722</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="530" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="2">
         <v>43723</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="531" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="2">
         <v>43724</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="532" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="2">
         <v>43725</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="533" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="2">
         <v>43726</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="534" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="2">
         <v>43727</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="535" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="2">
         <v>43728</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="536" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="2">
         <v>43729</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="537" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="2">
         <v>43730</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="538" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="2">
         <v>43731</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="539" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="2">
         <v>43732</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="540" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="2">
         <v>43733</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="541" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="2">
         <v>43734</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="542" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="2">
         <v>43735</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="543" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="2">
         <v>43736</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="544" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="2">
         <v>43737</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="545" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="2">
         <v>43738</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="546" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="2">
         <v>43739</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="547" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="2">
         <v>43740</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="548" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="2">
         <v>43741</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="549" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="2">
         <v>43742</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="550" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="2">
         <v>43743</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="551" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="2">
         <v>43744</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="552" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="2">
         <v>43745</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="553" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="2">
         <v>43746</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="554" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="2">
         <v>43747</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="555" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="2">
         <v>43748</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="556" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="2">
         <v>43749</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="557" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="2">
         <v>43750</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="558" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="2">
         <v>43751</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="559" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="2">
         <v>43752</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="560" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="2">
         <v>43753</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="561" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="2">
         <v>43754</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="562" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="2">
         <v>43755</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="563" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="2">
         <v>43756</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="564" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="2">
         <v>43757</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="565" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="2">
         <v>43758</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="566" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="2">
         <v>43759</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="567" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="2">
         <v>43760</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="568" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="2">
         <v>43761</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="569" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="2">
         <v>43762</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="570" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="2">
         <v>43763</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="571" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="2">
         <v>43764</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="572" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="2">
         <v>43765</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="573" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="2">
         <v>43766</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="574" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="2">
         <v>43767</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="575" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="2">
         <v>43768</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="576" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="2">
         <v>43769</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="577" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="2">
         <v>43770</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="578" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="2">
         <v>43771</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="579" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="2">
         <v>43772</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="580" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="2">
         <v>43773</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="581" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="2">
         <v>43774</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="582" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="2">
         <v>43775</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="583" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="2">
         <v>43776</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="584" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="2">
         <v>43777</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="585" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="2">
         <v>43778</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="586" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="2">
         <v>43779</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="587" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="2">
         <v>43780</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="588" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="2">
         <v>43781</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="589" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="2">
         <v>43782</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="590" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="2">
         <v>43783</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="591" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="2">
         <v>43784</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="592" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="2">
         <v>43785</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="593" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="2">
         <v>43786</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="594" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="2">
         <v>43787</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="595" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="2">
         <v>43788</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="596" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="2">
         <v>43789</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="597" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="2">
         <v>43790</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="598" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="2">
         <v>43791</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="599" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="2">
         <v>43792</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="600" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="2">
         <v>43793</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="601" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="2">
         <v>43794</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="602" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="2">
         <v>43795</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="603" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="2">
         <v>43796</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="604" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="2">
         <v>43797</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="605" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="2">
         <v>43798</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="606" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="2">
         <v>43799</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="607" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="2">
         <v>43800</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="608" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="2">
         <v>43801</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="609" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="2">
         <v>43802</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="610" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="2">
         <v>43803</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="611" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="2">
         <v>43804</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="612" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="2">
         <v>43805</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="613" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="2">
         <v>43806</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="614" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="2">
         <v>43807</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="615" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="2">
         <v>43808</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="616" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="2">
         <v>43809</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="617" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="2">
         <v>43810</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="618" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="2">
         <v>43811</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="619" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="2">
         <v>43812</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="620" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="2">
         <v>43813</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="621" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="2">
         <v>43814</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="622" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="2">
         <v>43815</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="623" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="2">
         <v>43816</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="624" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="2">
         <v>43817</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="625" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="2">
         <v>43818</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="626" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="2">
         <v>43819</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="627" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="2">
         <v>43820</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="628" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="2">
         <v>43821</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="629" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="2">
         <v>43822</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="630" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="2">
         <v>43823</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="631" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="2">
         <v>43824</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>651.5</v>
       </c>
     </row>
-    <row r="632" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="2">
         <v>43825</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="633" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="2">
         <v>43826</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="634" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="2">
         <v>43827</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="635" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="2">
         <v>43828</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="636" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="2">
         <v>43829</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="637" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="2">
         <v>43830</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="638" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="2">
         <v>43832</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="639" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="2">
         <v>43833</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="640" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="2">
         <v>43834</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="641" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="2">
         <v>43835</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="642" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="2">
         <v>43836</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="643" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="2">
         <v>43837</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="644" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="2">
         <v>43838</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="645" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="2">
         <v>43839</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="646" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="2">
         <v>43840</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="647" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="2">
         <v>43841</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="648" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="2">
         <v>43842</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="649" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="2">
         <v>43843</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="650" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="2">
         <v>43844</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="651" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="2">
         <v>43845</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="652" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="2">
         <v>43846</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="653" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="2">
         <v>43847</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="654" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="2">
         <v>43848</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="655" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="2">
         <v>43849</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="656" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="2">
         <v>43850</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="657" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="2">
         <v>43851</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="658" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="2">
         <v>43852</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="659" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="2">
         <v>43853</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="660" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="2">
         <v>43854</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="661" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="2">
         <v>43855</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="662" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="2">
         <v>43856</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="663" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="2">
         <v>43857</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="664" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="2">
         <v>43858</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="665" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="2">
         <v>43859</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="666" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="2">
         <v>43860</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="667" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="2">
         <v>43861</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="668" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="2">
         <v>43862</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>364.3</v>
       </c>
     </row>
-    <row r="669" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="2">
         <v>43863</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="670" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="2">
         <v>43864</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="671" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="2">
         <v>43865</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="672" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="2">
         <v>43866</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="673" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="2">
         <v>43867</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="674" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="2">
         <v>43868</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="675" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="2">
         <v>43869</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="676" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="2">
         <v>43870</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="677" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="2">
         <v>43871</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="678" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="2">
         <v>43872</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="679" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="2">
         <v>43873</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="680" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="2">
         <v>43874</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="681" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="2">
         <v>43875</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="682" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="2">
         <v>43876</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="683" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="2">
         <v>43877</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="684" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="2">
         <v>43878</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="685" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="2">
         <v>43879</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="686" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="2">
         <v>43880</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="687" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="2">
         <v>43881</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="688" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="2">
         <v>43882</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="689" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="2">
         <v>43883</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="690" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="2">
         <v>43884</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="691" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="2">
         <v>43885</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="692" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="2">
         <v>43886</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="693" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="2">
         <v>43887</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="694" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="2">
         <v>43888</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="695" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="2">
         <v>43889</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="696" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="2">
         <v>43890</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="697" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="2">
         <v>43891</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="698" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="2">
         <v>43892</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="699" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="2">
         <v>43893</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="700" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="2">
         <v>43894</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="701" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="2">
         <v>43895</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="702" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="2">
         <v>43896</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="703" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="2">
         <v>43897</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="704" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="2">
         <v>43898</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="705" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="2">
         <v>43899</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="706" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="2">
         <v>43900</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="707" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="2">
         <v>43901</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="708" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="2">
         <v>43902</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="709" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="2">
         <v>43903</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="710" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="2">
         <v>43904</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="711" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="2">
         <v>43905</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="712" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="2">
         <v>43906</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="713" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="2">
         <v>43907</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="714" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="2">
         <v>43908</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="715" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="2">
         <v>43909</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="716" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="2">
         <v>43910</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="717" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="2">
         <v>43911</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="718" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="2">
         <v>43912</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="719" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="2">
         <v>43913</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="720" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="2">
         <v>43914</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="721" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="2">
         <v>43915</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="722" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="2">
         <v>43916</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="723" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="2">
         <v>43917</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="724" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="2">
         <v>43918</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="725" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="2">
         <v>43919</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="726" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="2">
         <v>43920</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="727" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="2">
         <v>43921</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="728" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="2">
         <v>43922</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="729" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="2">
         <v>43923</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="730" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="2">
         <v>43924</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="731" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="2">
         <v>43925</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="732" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="2">
         <v>43926</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="733" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="2">
         <v>43927</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="734" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="2">
         <v>43928</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="735" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="2">
         <v>43929</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="736" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="2">
         <v>43930</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="737" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="2">
         <v>43931</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="738" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="2">
         <v>43932</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="739" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="2">
         <v>43933</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="740" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="2">
         <v>43934</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="741" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="2">
         <v>43935</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="742" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="2">
         <v>43936</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="743" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="2">
         <v>43937</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="744" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="2">
         <v>43938</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="745" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="2">
         <v>43939</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="746" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="2">
         <v>43940</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="747" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="2">
         <v>43941</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="748" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="2">
         <v>43942</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="749" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="2">
         <v>43943</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="750" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="2">
         <v>43944</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="751" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="2">
         <v>43945</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="752" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="2">
         <v>43946</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="753" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="2">
         <v>43947</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="754" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="2">
         <v>43948</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="755" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="2">
         <v>43949</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="756" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="2">
         <v>43950</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="757" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="2">
         <v>43951</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="758" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="2">
         <v>43952</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="759" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="2">
         <v>43953</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="760" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="2">
         <v>43954</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="761" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="2">
         <v>43955</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="762" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="2">
         <v>43956</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="763" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="2">
         <v>43957</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="764" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="2">
         <v>43958</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="765" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="2">
         <v>43959</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="766" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="2">
         <v>43960</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="767" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="2">
         <v>43961</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="768" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="2">
         <v>43962</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="769" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="2">
         <v>43963</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="770" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="2">
         <v>43964</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="771" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="2">
         <v>43965</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="772" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="2">
         <v>43966</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="773" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="2">
         <v>43967</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="774" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="2">
         <v>43968</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="775" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="2">
         <v>43969</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="776" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="2">
         <v>43970</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="777" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="2">
         <v>43971</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="778" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="2">
         <v>43972</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="779" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="2">
         <v>43973</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="780" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="2">
         <v>43974</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="781" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="2">
         <v>43975</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="782" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="2">
         <v>43976</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="783" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="2">
         <v>43977</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="784" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="2">
         <v>43978</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="785" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="2">
         <v>43979</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="786" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="2">
         <v>43980</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="787" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="2">
         <v>43981</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="788" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="2">
         <v>43982</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="789" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="2">
         <v>43983</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="790" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="2">
         <v>43984</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="791" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="2">
         <v>43985</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="792" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="2">
         <v>43986</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="793" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="2">
         <v>43987</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="794" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="2">
         <v>43988</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="795" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="2">
         <v>43989</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="796" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="2">
         <v>43990</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="797" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="2">
         <v>43991</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="798" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="2">
         <v>43992</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="799" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="2">
         <v>43993</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="800" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="2">
         <v>43994</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="801" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="2">
         <v>43995</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="802" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="2">
         <v>43996</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="803" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="2">
         <v>43997</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="804" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="2">
         <v>43998</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="805" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="2">
         <v>43999</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="806" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="2">
         <v>44000</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="807" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="2">
         <v>44001</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="808" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="2">
         <v>44002</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="809" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="2">
         <v>44003</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="810" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="2">
         <v>44004</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="811" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="2">
         <v>44005</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="812" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="2">
         <v>44006</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="813" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="2">
         <v>44007</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="814" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="2">
         <v>44008</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="815" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="2">
         <v>44009</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="816" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="2">
         <v>44010</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="817" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="2">
         <v>44011</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="818" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="2">
         <v>44012</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="819" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="2">
         <v>44013</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="820" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="2">
         <v>44014</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="821" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="2">
         <v>44015</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="822" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="2">
         <v>44016</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="823" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="2">
         <v>44017</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="824" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="2">
         <v>44018</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="825" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="2">
         <v>44019</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="826" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="2">
         <v>44020</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="827" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="2">
         <v>44021</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="828" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="2">
         <v>44022</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="829" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="2">
         <v>44023</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="830" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="2">
         <v>44024</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="831" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="2">
         <v>44025</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="832" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="2">
         <v>44026</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="833" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="2">
         <v>44027</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="834" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="2">
         <v>44028</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="835" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="2">
         <v>44029</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="836" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="2">
         <v>44030</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="837" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="2">
         <v>44031</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="838" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="2">
         <v>44032</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="839" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="2">
         <v>44033</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="840" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="2">
         <v>44034</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="841" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="2">
         <v>44035</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="842" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="2">
         <v>44036</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="843" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="2">
         <v>44037</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="844" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="2">
         <v>44038</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="845" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="2">
         <v>44039</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="846" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="2">
         <v>44040</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="847" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="2">
         <v>44041</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="848" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="2">
         <v>44042</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="849" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="2">
         <v>44043</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="850" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="2">
         <v>44044</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="851" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="2">
         <v>44045</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="852" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="2">
         <v>44046</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="853" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="2">
         <v>44047</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="854" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="2">
         <v>44048</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="855" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="2">
         <v>44049</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="856" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="2">
         <v>44050</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="857" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="2">
         <v>44051</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="858" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="2">
         <v>44052</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="859" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="2">
         <v>44053</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="860" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="2">
         <v>44054</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="861" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="2">
         <v>44055</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="862" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="2">
         <v>44056</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="863" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="2">
         <v>44057</v>
       </c>
@@ -7338,7 +7338,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="864" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="2">
         <v>44058</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="865" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="2">
         <v>44059</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="866" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="2">
         <v>44060</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="867" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="2">
         <v>44061</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="868" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="2">
         <v>44062</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="869" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="2">
         <v>44063</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="870" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="2">
         <v>44064</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="871" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="2">
         <v>44065</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="872" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="2">
         <v>44066</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="873" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="2">
         <v>44067</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="874" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="2">
         <v>44068</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="875" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="2">
         <v>44069</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="876" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="2">
         <v>44070</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="877" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="2">
         <v>44071</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="878" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="2">
         <v>44072</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="879" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="2">
         <v>44073</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="880" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="2">
         <v>44074</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="881" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="2">
         <v>44075</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="882" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="2">
         <v>44076</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="883" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="2">
         <v>44077</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="884" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="2">
         <v>44078</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="885" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="2">
         <v>44079</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="886" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="2">
         <v>44080</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="887" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="2">
         <v>44081</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="888" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="2">
         <v>44082</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="889" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="2">
         <v>44083</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="890" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="2">
         <v>44084</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="891" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="2">
         <v>44085</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="892" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="2">
         <v>44086</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="893" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="2">
         <v>44087</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="894" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="2">
         <v>44088</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="895" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="2">
         <v>44089</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="896" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="2">
         <v>44090</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="897" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="2">
         <v>44091</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="898" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="2">
         <v>44092</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="899" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="2">
         <v>44093</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="900" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="2">
         <v>44094</v>
       </c>
@@ -7634,19 +7634,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="901" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A901" s="2">
-        <v>44095</v>
+    <row r="901" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A901" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B901" s="3">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="902" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A902" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B902" s="3">
         <v>243078.87</v>
       </c>
     </row>
